--- a/Plantilla_Carga_Especificaciones.xlsx
+++ b/Plantilla_Carga_Especificaciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claud\Downloads\Proyecto 5\Proyecto-5.-Aplicaci-n-web-con-REACT-fe8e80b86340def5a377d19a3354b0420662f49b\Proyecto-5 REACT API\MCS_ERP_BACKEND\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claud\Downloads\project-bolt-sb1-qnazhgui\project\Administracio_gestion_precios_nuevo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B29AD7D-BD8F-4C7D-8B42-D7693CDD8FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF00ABD-7D3E-4F12-9E54-1DEAB726A571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{11AED62C-B828-40EA-BE3D-3D7A9A8A443C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{11AED62C-B828-40EA-BE3D-3D7A9A8A443C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="212">
   <si>
     <t>Código Fabricante</t>
   </si>
@@ -305,6 +305,413 @@
   </si>
   <si>
     <t>PESO CON GRUA</t>
+  </si>
+  <si>
+    <t>A 141 XL - 75 HP H - Chasis 80 km/h - Mesa Giratoria</t>
+  </si>
+  <si>
+    <t>PTO A 141 XL - Chasis 80 km/h</t>
+  </si>
+  <si>
+    <t>PTO A 141 XL - Chasis 25 km/h</t>
+  </si>
+  <si>
+    <t>PTO A 141 XL - 3 Puntos de enlace - Cat II</t>
+  </si>
+  <si>
+    <t>3200 [kg]</t>
+  </si>
+  <si>
+    <t>1950 [kg]</t>
+  </si>
+  <si>
+    <t>2,35 [m]</t>
+  </si>
+  <si>
+    <t>1.6 [m]</t>
+  </si>
+  <si>
+    <t>3,3 [m]</t>
+  </si>
+  <si>
+    <t>2.9 [m]</t>
+  </si>
+  <si>
+    <t>1,91 [m]</t>
+  </si>
+  <si>
+    <t>2.3 [m]</t>
+  </si>
+  <si>
+    <t>4,7 [m]</t>
+  </si>
+  <si>
+    <t>5,4 [m]</t>
+  </si>
+  <si>
+    <t>0.65 [m]</t>
+  </si>
+  <si>
+    <t>270 º</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Hatz</t>
+  </si>
+  <si>
+    <t>Sin motor. Requiere toma de fuerza (PTO)</t>
+  </si>
+  <si>
+    <t>Diésel</t>
+  </si>
+  <si>
+    <t>70 L</t>
+  </si>
+  <si>
+    <t>64 L</t>
+  </si>
+  <si>
+    <t>75 [hp]</t>
+  </si>
+  <si>
+    <t>Requiere 82 [HP]</t>
+  </si>
+  <si>
+    <t>Sistema de enfriamiento por aire</t>
+  </si>
+  <si>
+    <t>Mediante panel de control, monitorización del sistema motriz e Hidráulico, Horómetro integrado</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>114 dB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor certificado para norma Stage V </t>
+  </si>
+  <si>
+    <t>35 [m³/hr]</t>
+  </si>
+  <si>
+    <t>Alimentación Manual</t>
+  </si>
+  <si>
+    <t>1370 x 840 [mm]</t>
+  </si>
+  <si>
+    <t>1370 x 850 [mm]</t>
+  </si>
+  <si>
+    <t>410 x 300 [mm]</t>
+  </si>
+  <si>
+    <t>300 [mm]</t>
+  </si>
+  <si>
+    <t>Complemento de la tolva que permite ampliar la superficie receptora de material y que se puede plegar para el transporte, cubriendo gran parte de la tolva de entrada.</t>
+  </si>
+  <si>
+    <t>Doble Rodillo de Alimentación</t>
+  </si>
+  <si>
+    <t>Diámetro Rodillo Superior: 200 mm Diámetro Rodillo Inferior: 160 mm</t>
+  </si>
+  <si>
+    <t>Diámetro Rodillo Superior: 120 mm Diámetro Rodillo Inferior: 120 mm</t>
+  </si>
+  <si>
+    <t>Construidos con material sólido de alta calidad.                                                
+Posible de ser reafilados y soldados en caso de desgaste.</t>
+  </si>
+  <si>
+    <t>Accionamiento hidráulico directo de los rodillos de alimentación mediante una transmisión de engranajes con igual velocidad de rotación de los cilindros de alimentación superior e inferior. Bloqueo simultáneo de rodillos para un máximo agarre.</t>
+  </si>
+  <si>
+    <t>Rodillo de alimentación superior basculante, lo cual significa que se adapta a la forma y tamaño de las ramas, garantizando un corte continuo, dando lugar a una alta capacidad de producción</t>
+  </si>
+  <si>
+    <t>Rodillo de alimentación superior suspendido pendularmente. Se orienta de forma radial, lo cual significa que conduce el material hacia el radio exterior del disco de corte en donde la velocidad periférica es más alta, consiguiendo mayor potencia de corte</t>
+  </si>
+  <si>
+    <t>Dispositivo eléctrico que monitorea la velocidad del volante previniendo que el tronco de madera alimente el volante cuando la rotación del volante decae. Esto permite al motor subir la velocidad del volante antes de continuar con el proceso de astillado.</t>
+  </si>
+  <si>
+    <t>Disco</t>
+  </si>
+  <si>
+    <t>270 [kg]</t>
+  </si>
+  <si>
+    <t>2 Cuchillos reafilables de doble ángulo.</t>
+  </si>
+  <si>
+    <t>1060 [mm] de diámetro x 40 [mm] de espesor</t>
+  </si>
+  <si>
+    <t>1000 RPM</t>
+  </si>
+  <si>
+    <t>Ajustable entre 5-20 [mm]</t>
+  </si>
+  <si>
+    <t>Longitud ajustable a través de la modificación hidráulica de la velocidad de rotación de los rodillos.</t>
+  </si>
+  <si>
+    <t>El Disco de Corte integra aspas ubicadas desde el canto exterior del disco hasta el eje principal, los que garantizan la absoluta estabilidad en todo el diámetro del disco de corte.</t>
+  </si>
+  <si>
+    <t>Mediante el gran tamaño de las aspas en conjunto con una carcasa de forma cónica, se logra un efecto soplador con gran capacidad de descarga.                      
+El disco de corte está abierto hacia el lado exterior en el lugar de ubicación del cuchillo de corte. Por medio de esto, todo el largo del cuchillo de corte es utilizado, así todo el material astillado es expulsado en forma óptima y sin obstrucciones</t>
+  </si>
+  <si>
+    <t>Dirigible en 360°, manualmente giratoria, con deflector abatible que direcciona la descarga</t>
+  </si>
+  <si>
+    <t>Por medio de masas especiales puestos en el disco de corte se logra una alta inercia con su correspondiente potencia.</t>
+  </si>
+  <si>
+    <t>Cuchillos de acero especial para trabajo forestal, con doble ángulo de filo para un corte en dos etapas. Primero separa el material y posteriormente produce un corte limpio y controlado.
+Por medio del doble ángulo de filo se logra reducir la emisión de ruido y la potencia requerida para el corte de material.</t>
+  </si>
+  <si>
+    <t>Los cuchillos son ubicados con una inclinación de 3° sobre el disco de corte, sufriendo un menor desgaste y requiriendo un menor esfuerzo para el desarrollo de su trabajo.                                                            
+Los cuchillos de corte son asegurados a través de pernos Allen, lo que además asegura un rápido montaje y desmontaje.</t>
+  </si>
+  <si>
+    <t>Dos yunques, horizontal y vertical, con dos lados utilizables</t>
+  </si>
+  <si>
+    <t>Radial</t>
+  </si>
+  <si>
+    <t>Acoplada mecánicamente a vehículo portante. No se desplaza de forma independiente</t>
+  </si>
+  <si>
+    <t>Chasis completamente galvanizado</t>
+  </si>
+  <si>
+    <t>Eje simple / Eje Tándem</t>
+  </si>
+  <si>
+    <t>Eje simple</t>
+  </si>
+  <si>
+    <t>2 / 4</t>
+  </si>
+  <si>
+    <t>205 R 14 C</t>
+  </si>
+  <si>
+    <t>250 x 80 [mm]</t>
+  </si>
+  <si>
+    <t>Enganche para remolque tipo anillo o de bola, ajustable en altura</t>
+  </si>
+  <si>
+    <t>Enganche con vehículo portante de 3 puntos de enlace Categoría II</t>
+  </si>
+  <si>
+    <t>Ajustable en altura, manteniendo el enganche a 90° en todo momento</t>
+  </si>
+  <si>
+    <t>80 [km/h]</t>
+  </si>
+  <si>
+    <t>Sistema 12 [Volt]</t>
+  </si>
+  <si>
+    <t>Rejilla metálica que ofrece protección contra impactos a los focos del equipo</t>
+  </si>
+  <si>
+    <t>Naranjo (RAL 2011)</t>
+  </si>
+  <si>
+    <t>Freno de inercia incorporado</t>
+  </si>
+  <si>
+    <t>Cumple exigencias de la CE.
+Cumple con normativas de emisiones de partículas según estándar europeo Stage V</t>
+  </si>
+  <si>
+    <t>Cumple exigencias de la CE</t>
+  </si>
+  <si>
+    <t>Direccional de alimentación, que acciona avance/neutro/reversa.</t>
+  </si>
+  <si>
+    <t>Barra direccional de alimentación, que acciona avance/neutro/reversa.</t>
+  </si>
+  <si>
+    <t>Mediante calcomanías distribuidas sobre la máquina.</t>
+  </si>
+  <si>
+    <t>Cumple con las Exigencias normativas para la circulación vial en calles nacionales.</t>
+  </si>
+  <si>
+    <t>A530L - 23.8 HP K - Chasis 80 km/h</t>
+  </si>
+  <si>
+    <t>A 530 L - 23 HP V - Chasis 80 km/h</t>
+  </si>
+  <si>
+    <t>A 530 L - 35 HP V - Chasis 80 km/h</t>
+  </si>
+  <si>
+    <t>A 530 L - 23.8 HP K - Oruga</t>
+  </si>
+  <si>
+    <t>PTO A 530 XL - 3 Puntos de enlace - Cat I</t>
+  </si>
+  <si>
+    <t>750 [kg]</t>
+  </si>
+  <si>
+    <t>720 [kg]</t>
+  </si>
+  <si>
+    <t>1200/1250 [kg]</t>
+  </si>
+  <si>
+    <t>500 [kg]</t>
+  </si>
+  <si>
+    <t>1.38 [m]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2 - 1,125 [m] </t>
+  </si>
+  <si>
+    <t>1.2 [m]</t>
+  </si>
+  <si>
+    <t>2.2 [m]</t>
+  </si>
+  <si>
+    <t>2,55 [m]</t>
+  </si>
+  <si>
+    <t>2.5 [m]</t>
+  </si>
+  <si>
+    <t>1.4 [m]</t>
+  </si>
+  <si>
+    <t>1.85 [m]</t>
+  </si>
+  <si>
+    <t>3.45 [m]</t>
+  </si>
+  <si>
+    <t>3.4 [m]</t>
+  </si>
+  <si>
+    <t>2,25 [m]</t>
+  </si>
+  <si>
+    <t>3.9 [m]</t>
+  </si>
+  <si>
+    <t>0.6 [m]</t>
+  </si>
+  <si>
+    <t>Kubota</t>
+  </si>
+  <si>
+    <t>Vanguard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kubota </t>
+  </si>
+  <si>
+    <t>Bencina</t>
+  </si>
+  <si>
+    <t>30 L</t>
+  </si>
+  <si>
+    <t>20 L</t>
+  </si>
+  <si>
+    <t>23.8 [hp]</t>
+  </si>
+  <si>
+    <t>23 [hp]</t>
+  </si>
+  <si>
+    <t>35 [hp]</t>
+  </si>
+  <si>
+    <t>Requiere 30 [HP]</t>
+  </si>
+  <si>
+    <t>20 [L/min)</t>
+  </si>
+  <si>
+    <t>Sistema de enfriamiento por agua</t>
+  </si>
+  <si>
+    <t>15 [m³/hr]</t>
+  </si>
+  <si>
+    <t>850 x 830 [mm]</t>
+  </si>
+  <si>
+    <t>210 x 150 [mm]</t>
+  </si>
+  <si>
+    <t>150 [mm]</t>
+  </si>
+  <si>
+    <t>Diámetro Rodillo Superior: 110 mm Diámetro Rodillo Inferior: 110 mm</t>
+  </si>
+  <si>
+    <t>Disco simple</t>
+  </si>
+  <si>
+    <t>70 [Kg]</t>
+  </si>
+  <si>
+    <t>600 [mm] de diámetro x 25 [mm] de espesor</t>
+  </si>
+  <si>
+    <t>1300 RPM</t>
+  </si>
+  <si>
+    <t>Mediante Oruga</t>
+  </si>
+  <si>
+    <t>Eje Simple</t>
+  </si>
+  <si>
+    <t>155 R 13 C</t>
+  </si>
+  <si>
+    <t>200 x 50 [mm]</t>
+  </si>
+  <si>
+    <t>Enganche para remolque tipo anillo o de bola</t>
+  </si>
+  <si>
+    <t>Enganche con vehículo portante de 3 puntos de enlace Categoría I</t>
+  </si>
+  <si>
+    <t>Barra fija</t>
+  </si>
+  <si>
+    <t>Sistema de oruga fijo</t>
+  </si>
+  <si>
+    <t>Perfectamente compatible con un sistema de compensación de nivel/ cama inclinable</t>
+  </si>
+  <si>
+    <t>3 [km/h]</t>
+  </si>
+  <si>
+    <t>Cumple exigencias de la CE.</t>
   </si>
 </sst>
 </file>
@@ -840,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68028367-D916-4D33-B5AB-F271F38F3CC3}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J78"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,29 +1261,65 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="4">
+        <v>61106</v>
+      </c>
+      <c r="C1" s="5">
+        <v>61135</v>
+      </c>
+      <c r="D1" s="5">
+        <v>61134</v>
+      </c>
+      <c r="E1" s="5">
+        <v>61103</v>
+      </c>
+      <c r="F1" s="4">
+        <v>61502</v>
+      </c>
+      <c r="G1" s="4">
+        <v>61532</v>
+      </c>
+      <c r="H1" s="4">
+        <v>61531</v>
+      </c>
+      <c r="I1" s="15">
+        <v>61514</v>
+      </c>
+      <c r="J1" s="16">
+        <v>61504</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="17"/>
+      <c r="B2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -896,127 +1339,263 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="19"/>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="20"/>
+      <c r="F7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="19"/>
+      <c r="J8" s="19" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="20"/>
+      <c r="F9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="20"/>
+      <c r="F10" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="19"/>
+      <c r="J11" s="19" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1036,140 +1615,306 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="19"/>
+      <c r="B14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="19"/>
+      <c r="B15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="19"/>
+      <c r="B16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="19"/>
+      <c r="B17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="19"/>
+      <c r="B18" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="19"/>
+      <c r="B20" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="19"/>
+      <c r="B21" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="22"/>
+      <c r="B22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="J23" s="23"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1190,183 +1935,415 @@
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="20"/>
+      <c r="B25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="19"/>
+      <c r="B26" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="20"/>
+      <c r="B27" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="20"/>
+      <c r="B28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="20"/>
+      <c r="B29" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="19"/>
+      <c r="C30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="19"/>
+      <c r="B31" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="19"/>
+      <c r="B32" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="19"/>
+      <c r="B33" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="19"/>
+      <c r="B34" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="19"/>
+      <c r="B35" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="19"/>
+      <c r="B36" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="19"/>
+      <c r="B37" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
@@ -1386,43 +2363,97 @@
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="19"/>
+      <c r="B39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="19"/>
+      <c r="B40" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="19"/>
+      <c r="B41" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -1432,179 +2463,403 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="19"/>
+      <c r="F42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="19"/>
+      <c r="B43" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="19"/>
+      <c r="B44" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="19"/>
+      <c r="B45" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="19"/>
+      <c r="B46" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="19"/>
+      <c r="B47" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="19"/>
+      <c r="B48" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="19"/>
+      <c r="B49" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="19"/>
+      <c r="B50" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="23"/>
+      <c r="B51" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="19"/>
+      <c r="B52" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="19"/>
+      <c r="B53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="19"/>
+      <c r="C54" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
@@ -1624,181 +2879,391 @@
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="19"/>
+      <c r="B56" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="19"/>
+      <c r="B57" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J57" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="19"/>
+      <c r="B58" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="19"/>
+      <c r="B59" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="9">
+        <v>2</v>
+      </c>
+      <c r="D59" s="9">
+        <v>2</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="9"/>
+      <c r="B60" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="19"/>
+      <c r="E60" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="9"/>
+      <c r="B61" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="19"/>
+      <c r="E61" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J61" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="19"/>
+      <c r="B62" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J62" s="19" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="19"/>
+      <c r="B63" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="19"/>
+      <c r="B64" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="J64" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="19"/>
+      <c r="B65" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J65" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="9"/>
+      <c r="B66" s="9" t="s">
+        <v>147</v>
+      </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="19"/>
+      <c r="F66" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J66" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="19"/>
+      <c r="B67" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J67" s="19" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="9"/>
+      <c r="B68" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="I68" s="9"/>
       <c r="J68" s="19"/>
     </row>
@@ -1806,29 +3271,63 @@
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="19"/>
+      <c r="B69" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J69" s="19" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
+      <c r="B70" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="I70" s="9"/>
-      <c r="J70" s="19"/>
+      <c r="J70" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
@@ -1848,57 +3347,129 @@
       <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="19"/>
+      <c r="B72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J72" s="19" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="19"/>
+      <c r="B73" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J73" s="19" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="19"/>
+      <c r="B74" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J74" s="19" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="19"/>
+      <c r="B75" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J75" s="19" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
@@ -1918,29 +3489,57 @@
       <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="9"/>
+      <c r="B77" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="19"/>
+      <c r="E77" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J77" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="9"/>
+      <c r="B78" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="19"/>
+      <c r="E78" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J78" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plantilla_Carga_Especificaciones.xlsx
+++ b/Plantilla_Carga_Especificaciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claud\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claud\Downloads\Proyecto 5\Proyecto-5.-Aplicaci-n-web-con-REACT-fe8e80b86340def5a377d19a3354b0420662f49b\Proyecto-5 REACT API\MCS_ERP_BACKEND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE6ECA8-7CAE-4134-B0DA-0B350039059E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1290D7B7-C7FE-409B-8587-4C0FA6D6A8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{11AED62C-B828-40EA-BE3D-3D7A9A8A443C}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,12 +93,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
@@ -132,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,19 +149,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -504,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68028367-D916-4D33-B5AB-F271F38F3CC3}">
-  <dimension ref="A1:A76"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,37 +523,30 @@
     <col min="2" max="2" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
+      <c r="A38" s="1"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
+      <c r="A55" s="1"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
+      <c r="A71" s="1"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
+      <c r="A76" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plantilla_Carga_Especificaciones.xlsx
+++ b/Plantilla_Carga_Especificaciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claud\Downloads\Proyecto 5\Proyecto-5.-Aplicaci-n-web-con-REACT-fe8e80b86340def5a377d19a3354b0420662f49b\Proyecto-5 REACT API\MCS_ERP_BACKEND\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27b1aac4d7c2c627/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1290D7B7-C7FE-409B-8587-4C0FA6D6A8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{1290D7B7-C7FE-409B-8587-4C0FA6D6A8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0A8724B-A41E-45CC-967B-015704552EB1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{11AED62C-B828-40EA-BE3D-3D7A9A8A443C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{11AED62C-B828-40EA-BE3D-3D7A9A8A443C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -83,20 +83,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -111,22 +104,38 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDADADA"/>
-        <bgColor rgb="FFDADADA"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -135,31 +144,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -168,13 +190,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -192,6 +216,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,42 +539,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68028367-D916-4D33-B5AB-F271F38F3CC3}">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" style="4" customWidth="1"/>
+    <col min="2" max="26" width="30.7109375" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
